--- a/biology/Zoologie/Ara_(oiseau)/Ara_(oiseau).xlsx
+++ b/biology/Zoologie/Ara_(oiseau)/Ara_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il habite en Amérique, peut vivre 50 ans puis cet oiseau coute 800 a 3500$[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite en Amérique, peut vivre 50 ans puis cet oiseau coute 800 a 3500$
 Ara est un nom vernaculaire donné à des oiseaux parmi les plus grands de la sous-famille des Psittacinae. Ces perroquets portent un plumage vivement coloré, généralement à dominante rouge ou verte, une longue queue et un bec puissant. Ils vivent en Amérique tropicale. Recherchés pour leurs couleurs chatoyantes et pour leur aptitude à « parler » comme beaucoup d'autres Psittacinae, les aras sont menacés d'extinction à l'état sauvage. Parmi les plus célèbres, l'Ara de Spix a même disparu à l'état sauvage, et les seuls spécimens encore vivants à l'heure actuelle se trouvent en captivité. Dans la nature, les aras se nourrissent en bandes.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous l'appellation française Ara sont regroupés six genres voisins de perroquets néo-tropicaux[2] :
-Ara, créé par Lacépède, comporte des espèces de perroquets de taille comprise entre 30 et 90 cm[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous l'appellation française Ara sont regroupés six genres voisins de perroquets néo-tropicaux :
+Ara, créé par Lacépède, comporte des espèces de perroquets de taille comprise entre 30 et 90 cm :
 Ara bleu ou Ara ararauna ou Ara bleu et jaune – Ara ararauna (Linnaeus, 1758)
-Ara à gorge bleue ou Ara canindé – Ara glaucogularis Dabbene, 1921[3]
+Ara à gorge bleue ou Ara canindé – Ara glaucogularis Dabbene, 1921
 Ara militaire – Ara militaris (Linnaeus, 1758)
 Ara de Buffon – Ara ambigua (Bechstein, 1811)
 Ara rouge ou Ara macao – Ara macao (Linnaeus, 1758)
@@ -568,7 +582,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ara ambigua.
